--- a/upload_3way/PO.xlsx
+++ b/upload_3way/PO.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\0019TS744\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\01934L744\Box\Baijnath Data\Project 2023\Nidhi\file to upload on browser\3way match file upload\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8926A158-C72E-4345-BCF1-26C3D22937A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4BB88DE-8C2D-4727-88D2-67C2A68D9542}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{5E2AB541-C0AE-411E-B46D-9E7337E26435}"/>
   </bookViews>
@@ -92,7 +92,7 @@
     <t>Unit_Price_In_Orig_Curr</t>
   </si>
   <si>
-    <t>PO_Spend</t>
+    <t>PO_Commit</t>
   </si>
 </sst>
 </file>
@@ -461,7 +461,7 @@
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -509,7 +509,7 @@
         <v>2</v>
       </c>
       <c r="D2">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="E2">
         <v>500</v>
@@ -532,7 +532,7 @@
         <v>2</v>
       </c>
       <c r="D3">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="E3">
         <v>400</v>
@@ -555,7 +555,7 @@
         <v>2</v>
       </c>
       <c r="D4">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="E4">
         <v>300</v>
@@ -578,7 +578,7 @@
         <v>2</v>
       </c>
       <c r="D5">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="E5">
         <v>300</v>
